--- a/src/main/resources/static/excel/人员导入模板.xlsx
+++ b/src/main/resources/static/excel/人员导入模板.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="59">
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="61">
   <si>
     <t>学历</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,9 +125,6 @@
     <t>昆山市中医医院</t>
   </si>
   <si>
-    <t>团队长</t>
-  </si>
-  <si>
     <t>全科医生</t>
   </si>
   <si>
@@ -149,10 +134,6 @@
     <t>学士/大学本科</t>
   </si>
   <si>
-    <t>团队名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>北区团队</t>
   </si>
   <si>
@@ -193,9 +174,6 @@
   </si>
   <si>
     <t>心理咨询师</t>
-  </si>
-  <si>
-    <t>营养师</t>
   </si>
   <si>
     <t>乡村医生</t>
@@ -203,13 +181,158 @@
   <si>
     <t>北区团队</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是否团队长</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年龄</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>性别</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>姓名</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>团队名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +362,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -649,10 +781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -666,719 +798,647 @@
     <col min="7" max="7" width="17.875" customWidth="1"/>
     <col min="8" max="8" width="20.75" customWidth="1"/>
     <col min="9" max="9" width="21.75" customWidth="1"/>
+    <col min="10" max="10" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
+    <row r="1" spans="1:10" ht="27">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="3">
         <v>29</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>63</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D4" s="3">
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3">
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3">
         <v>55</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3">
         <v>37</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3">
         <v>43</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3">
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="J11" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>46</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
         <v>45</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <v>47</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>60</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>51</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
         <v>24</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="J17" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
         <v>25</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D19" s="3">
         <v>31</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20" s="3">
         <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D21" s="3">
         <v>32</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D22" s="3">
         <v>37</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="3">
-        <v>37</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3">
-        <v>43</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="3">
-        <v>46</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3">
-        <v>45</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3">
-        <v>58</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
       <formula1>"博士,硕士,学士/大学本科,大专,中专,高中,初中及以下"</formula1>
     </dataValidation>
@@ -1386,7 +1446,10 @@
       <formula1>"执业助理医师,护师,见习医师,主治医师,研究实习员,药剂师,主管检验师,护士,社区副主任医师,主管护师,副主任中医师,社区主任护师,乡镇执业助理医师,乡村医生,中医师"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576">
-      <formula1>"团队长,全科医生,护士,健康协调员,健康管理,营养师,心理咨询师"</formula1>
+      <formula1>"全科医生,护士,健康协调员,健康管理,营养师,心理咨询师"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J1:J1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
